--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t/>
   </si>
@@ -56,37 +56,64 @@
     <t>MOBILE</t>
   </si>
   <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Jhanvi</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>Bomb Nagar</t>
+  </si>
+  <si>
+    <t>Thiruvattar</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>jhanvi@gmail.com</t>
+  </si>
+  <si>
     <t>Mr.</t>
   </si>
   <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Chan</t>
+    <t>Narendra</t>
+  </si>
+  <si>
+    <t>Modi</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2024-11-06</t>
-  </si>
-  <si>
-    <t>Thiruvattar</t>
-  </si>
-  <si>
-    <t>Thaliyal Street</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>jackie@gmail.com</t>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>Bombay Street</t>
+  </si>
+  <si>
+    <t>BombuDhesh</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>narendra@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -131,21 +158,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="20.46875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.296875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.13671875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.08203125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
@@ -234,6 +261,47 @@
         <v>9.517538246E9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>629177.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.898989898E9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t/>
   </si>
@@ -54,39 +54,6 @@
   </si>
   <si>
     <t>MOBILE</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Chan</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2024-11-06</t>
-  </si>
-  <si>
-    <t>Thiruvattar</t>
-  </si>
-  <si>
-    <t>Thaliyal Street</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>jackie@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -131,25 +98,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.375" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.30859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.53515625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="9.0234375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.5390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="6.74609375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="8.125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -193,47 +160,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="n">
-        <v>629177.0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.517538246E9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -59,16 +59,16 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Chan</t>
+    <t>Jhanvi</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2024-11-06</t>
+    <t>2024-11-23</t>
   </si>
   <si>
     <t>Thiruvattar</t>
@@ -86,7 +86,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>jackie@gmail.com</t>
+    <t>jhanvi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t/>
   </si>
@@ -59,16 +59,34 @@
     <t>Mr.</t>
   </si>
   <si>
+    <t>Shreyas</t>
+  </si>
+  <si>
+    <t>A Shhh</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2001-11-29</t>
+  </si>
+  <si>
+    <t>adfasdf</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>shreyas.as@techversantinfotech.com</t>
+  </si>
+  <si>
     <t>Jhanvi</t>
   </si>
   <si>
     <t>Kapoor</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2024-11-23</t>
+    <t>2024-11-29</t>
   </si>
   <si>
     <t>Thiruvattar</t>
@@ -131,14 +149,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="12" max="12" width="34.65625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -216,21 +234,62 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>154875.0</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="n">
+        <v>9.878545621E9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="n">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="n">
         <v>629177.0</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="n">
         <v>9.517538246E9</v>
       </c>
     </row>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -59,52 +59,58 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>Shreyas</t>
-  </si>
-  <si>
-    <t>A Shhh</t>
+    <t>Kapoor1</t>
+  </si>
+  <si>
+    <t>qwqw</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2001-11-29</t>
-  </si>
-  <si>
-    <t>adfasdf</t>
-  </si>
-  <si>
-    <t>asdfasdf</t>
-  </si>
-  <si>
-    <t>shreyas.as@techversantinfotech.com</t>
-  </si>
-  <si>
-    <t>Jhanvi</t>
-  </si>
-  <si>
-    <t>Kapoor</t>
-  </si>
-  <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>Thiruvattar</t>
-  </si>
-  <si>
-    <t>Thaliyal Street</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>qwqwqw</t>
+  </si>
+  <si>
+    <t>qwqwq</t>
+  </si>
+  <si>
+    <t>wqwqkmlkw</t>
+  </si>
+  <si>
+    <t>qwqwqfgh</t>
+  </si>
+  <si>
+    <t>k12123@gmail.com</t>
+  </si>
+  <si>
+    <t>Narendra</t>
+  </si>
+  <si>
+    <t>Modi</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>Bomb Nagar</t>
+  </si>
+  <si>
+    <t>Bombay Street</t>
+  </si>
+  <si>
+    <t>BombuDhesh</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>jhanvi@gmail.com</t>
+    <t>narendra@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -155,17 +161,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="34.65625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="20.46875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.296875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.13671875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.08203125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
   </cols>
@@ -231,25 +237,25 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>154875.0</v>
+        <v>123456.0</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="n">
-        <v>9.878545621E9</v>
+        <v>1.223455263E9</v>
       </c>
     </row>
     <row r="3">
@@ -257,40 +263,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="n">
         <v>629177.0</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" t="n">
-        <v>9.517538246E9</v>
+        <v>1.223455267E9</v>
       </c>
     </row>
   </sheetData>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -56,10 +56,13 @@
     <t>MOBILE</t>
   </si>
   <si>
+    <t>PROFILEPHOTO</t>
+  </si>
+  <si>
     <t>Mr.</t>
   </si>
   <si>
-    <t>Kapoor1</t>
+    <t>Kapoor</t>
   </si>
   <si>
     <t>qwqw</t>
@@ -83,7 +86,10 @@
     <t>qwqwqfgh</t>
   </si>
   <si>
-    <t>k12123@gmail.com</t>
+    <t>k121@gmail.com</t>
+  </si>
+  <si>
+    <t>image1.jpg</t>
   </si>
   <si>
     <t>Narendra</t>
@@ -111,6 +117,9 @@
   </si>
   <si>
     <t>narendra@gmail.com</t>
+  </si>
+  <si>
+    <t>jackie2.webp</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,6 +183,7 @@
     <col min="10" max="10" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="14.8828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,87 +226,96 @@
       <c r="M1" t="s">
         <v>13</v>
       </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
         <v>123456.0</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="n">
         <v>1.223455263E9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="n">
         <v>629177.0</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="n">
         <v>1.223455267E9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -62,64 +62,37 @@
     <t>Mr.</t>
   </si>
   <si>
+    <t>Jhanvi</t>
+  </si>
+  <si>
     <t>Kapoor</t>
   </si>
   <si>
-    <t>qwqw</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2024-11-05</t>
-  </si>
-  <si>
-    <t>qwqwqw</t>
-  </si>
-  <si>
-    <t>qwqwq</t>
-  </si>
-  <si>
-    <t>wqwqkmlkw</t>
-  </si>
-  <si>
-    <t>qwqwqfgh</t>
-  </si>
-  <si>
-    <t>k121@gmail.com</t>
-  </si>
-  <si>
-    <t>image1.jpg</t>
-  </si>
-  <si>
-    <t>Narendra</t>
-  </si>
-  <si>
-    <t>Modi</t>
-  </si>
-  <si>
-    <t>2024-11-21</t>
-  </si>
-  <si>
-    <t>Bomb Nagar</t>
-  </si>
-  <si>
-    <t>Bombay Street</t>
-  </si>
-  <si>
-    <t>BombuDhesh</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>Thiruvattar</t>
+  </si>
+  <si>
+    <t>Thaliyal Street</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>narendra@gmail.com</t>
-  </si>
-  <si>
-    <t>jackie2.webp</t>
+    <t>jhanvi@gmail.com</t>
+  </si>
+  <si>
+    <t>photofemale.jpg</t>
   </si>
 </sst>
 </file>
@@ -164,26 +137,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="20.46875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="15.85546875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.13671875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.08203125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="14.8828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -250,72 +223,28 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>123456.0</v>
+        <v>629177.0</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.223455263E9</v>
+        <v>9.517538246E9</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="n">
-        <v>629177.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.223455267E9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t/>
   </si>
@@ -59,40 +59,73 @@
     <t>PROFILEPHOTO</t>
   </si>
   <si>
+    <t>ROLE</t>
+  </si>
+  <si>
     <t>Mr.</t>
   </si>
   <si>
+    <t>Jackies</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2024-11-28</t>
+  </si>
+  <si>
+    <t>Bomb Nagar</t>
+  </si>
+  <si>
+    <t>Bombay Street</t>
+  </si>
+  <si>
+    <t>BombuDhesh</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>jackies@gmail.com</t>
+  </si>
+  <si>
+    <t>jackie.jpg</t>
+  </si>
+  <si>
+    <t>role1,role2,role4</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
     <t>Jhanvi</t>
   </si>
   <si>
     <t>Kapoor</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>Thiruvattar</t>
-  </si>
-  <si>
-    <t>Thaliyal Street</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>India</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>district</t>
   </si>
   <si>
     <t>jhanvi@gmail.com</t>
   </si>
   <si>
-    <t>photofemale.jpg</t>
+    <t>photofemale10.jpg</t>
+  </si>
+  <si>
+    <t>role1,role2,role3</t>
   </si>
 </sst>
 </file>
@@ -137,23 +170,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="18.234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="16.05859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="18.0859375" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.13671875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.08203125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="8.546875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
@@ -202,49 +236,102 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>123456.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.487966665E9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="n">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
         <v>629177.0</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9.517538246E9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.487000875E9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t/>
   </si>
@@ -59,73 +59,55 @@
     <t>PROFILEPHOTO</t>
   </si>
   <si>
+    <t>CONTACTID</t>
+  </si>
+  <si>
     <t>ROLE</t>
   </si>
   <si>
+    <t>ROLEID</t>
+  </si>
+  <si>
     <t>Mr.</t>
   </si>
   <si>
-    <t>Jackies</t>
-  </si>
-  <si>
-    <t>Chan</t>
+    <t>Parikshit</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>2024-11-28</t>
-  </si>
-  <si>
-    <t>Bomb Nagar</t>
-  </si>
-  <si>
-    <t>Bombay Street</t>
-  </si>
-  <si>
-    <t>BombuDhesh</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
+    <t>1212-12-12</t>
+  </si>
+  <si>
+    <t>Thiruvattar</t>
+  </si>
+  <si>
+    <t>Thaliyal Street</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>jackies@gmail.com</t>
-  </si>
-  <si>
-    <t>jackie.jpg</t>
-  </si>
-  <si>
-    <t>role1,role2,role4</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Jhanvi</t>
-  </si>
-  <si>
-    <t>Kapoor</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2024-12-02</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>jhanvi@gmail.com</t>
-  </si>
-  <si>
-    <t>photofemale10.jpg</t>
-  </si>
-  <si>
-    <t>role1,role2,role3</t>
+    <t>parikshithh12h@gmail.com</t>
+  </si>
+  <si>
+    <t>jackie6.webp</t>
+  </si>
+  <si>
+    <t>role1,role2</t>
+  </si>
+  <si>
+    <t>101,201</t>
   </si>
 </sst>
 </file>
@@ -170,27 +152,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="7" max="7" width="14.296875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="18.234375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="16.05859375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="18.0859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="25.703125" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.13671875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.08203125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="14.8828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.5859375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="10.87109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="8.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -239,99 +223,64 @@
       <c r="O1" t="s">
         <v>15</v>
       </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="n">
-        <v>123456.0</v>
+        <v>629177.0</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" t="n">
-        <v>9.487966665E9</v>
+        <v>9.487929875E9</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="O2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>629177.0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.487000875E9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -71,7 +71,7 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>Parikshit</t>
+    <t>Parikshith</t>
   </si>
   <si>
     <t>M</t>
@@ -80,7 +80,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>1212-12-12</t>
+    <t>2003-01-21</t>
   </si>
   <si>
     <t>Thiruvattar</t>
@@ -92,16 +92,16 @@
     <t>Kanyakumari</t>
   </si>
   <si>
-    <t>TamilNadu</t>
+    <t>Mumbai</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>parikshithh12h@gmail.com</t>
-  </si>
-  <si>
-    <t>jackie6.webp</t>
+    <t>parikshith2101@gmail.com</t>
+  </si>
+  <si>
+    <t>profile.png</t>
   </si>
   <si>
     <t>role1,role2</t>
@@ -159,7 +159,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="25.703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="25.62109375" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -167,7 +167,7 @@
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="8.546875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
@@ -274,7 +274,7 @@
         <v>29</v>
       </c>
       <c r="O2" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t/>
   </si>
@@ -108,6 +108,36 @@
   </si>
   <si>
     <t>101,201</t>
+  </si>
+  <si>
+    <t>Jhanvi</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>AHAHAHA</t>
+  </si>
+  <si>
+    <t>jhanvi@gmail.com</t>
+  </si>
+  <si>
+    <t>photofemale.jpg</t>
+  </si>
+  <si>
+    <t>role2,role3</t>
+  </si>
+  <si>
+    <t>201,301</t>
   </si>
 </sst>
 </file>
@@ -152,7 +182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -160,6 +190,7 @@
   <cols>
     <col min="7" max="7" width="13.8203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="25.62109375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="15.85546875" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
@@ -167,11 +198,10 @@
     <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.03515625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.6796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="8.546875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="9.8359375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.71484375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.2421875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="14.8828125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="11.5859375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="10.87109375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="8.27734375" customWidth="true" bestFit="true"/>
@@ -283,6 +313,59 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="n">
+        <v>123456.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.878545621E9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="54">
   <si>
     <t/>
   </si>
@@ -71,73 +71,109 @@
     <t>Mr.</t>
   </si>
   <si>
+    <t>Parols</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2003-01-21</t>
+  </si>
+  <si>
+    <t>thiruattsar</t>
+  </si>
+  <si>
+    <t>Thaliyal Street</t>
+  </si>
+  <si>
+    <t>dsfgfdg</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>bbn</t>
+  </si>
+  <si>
+    <t>parikshith2101@gmail.com</t>
+  </si>
+  <si>
+    <t>eagle.jpg</t>
+  </si>
+  <si>
+    <t>role1,role4</t>
+  </si>
+  <si>
+    <t>101,401</t>
+  </si>
+  <si>
+    <t>Jhanvi</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>Thiruvattar</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>AHAHAHA</t>
+  </si>
+  <si>
+    <t>jhanvi@gmail.com</t>
+  </si>
+  <si>
+    <t>photofemale.jpg</t>
+  </si>
+  <si>
+    <t>bcde</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>abcfs@gmail.com</t>
+  </si>
+  <si>
+    <t>profile.png</t>
+  </si>
+  <si>
+    <t>role1,role2</t>
+  </si>
+  <si>
+    <t>101,201</t>
+  </si>
+  <si>
+    <t>Adijsdfi</t>
+  </si>
+  <si>
+    <t>eeecdeeeee@gmail.com</t>
+  </si>
+  <si>
     <t>Parikshith</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2003-01-21</t>
-  </si>
-  <si>
-    <t>Thiruvattar</t>
-  </si>
-  <si>
-    <t>Thaliyal Street</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>parikshith2101@gmail.com</t>
-  </si>
-  <si>
-    <t>profile.png</t>
-  </si>
-  <si>
-    <t>role1,role2</t>
-  </si>
-  <si>
-    <t>101,201</t>
-  </si>
-  <si>
-    <t>Jhanvi</t>
-  </si>
-  <si>
-    <t>Kapoor</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>AHAHAHA</t>
-  </si>
-  <si>
-    <t>jhanvi@gmail.com</t>
-  </si>
-  <si>
-    <t>photofemale.jpg</t>
-  </si>
-  <si>
-    <t>role2,role3</t>
-  </si>
-  <si>
-    <t>201,301</t>
+    <t>parikshith12@gmail.com</t>
+  </si>
+  <si>
+    <t>pari@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -182,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -330,40 +366,252 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" t="n">
         <v>123456.0</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" t="n">
         <v>9.878545621E9</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O3" t="n">
         <v>12.0</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="n">
+        <v>629177.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.212121212E9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>629177.0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.212121212E9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="n">
+        <v>629177.0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.212121212E9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>629177.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.487929875E9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="55">
   <si>
     <t/>
   </si>
@@ -71,37 +71,103 @@
     <t>Mr.</t>
   </si>
   <si>
+    <t>sgdf</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2003-01-21</t>
+  </si>
+  <si>
+    <t>bvbjhvghj</t>
+  </si>
+  <si>
+    <t>Thaliyal Street</t>
+  </si>
+  <si>
+    <t>dsfgfdg</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>bbn</t>
+  </si>
+  <si>
+    <t>parikshith2101@gmail.com</t>
+  </si>
+  <si>
+    <t>eagle.jpg</t>
+  </si>
+  <si>
+    <t>role1,role2</t>
+  </si>
+  <si>
+    <t>101,201</t>
+  </si>
+  <si>
+    <t>Jhanvi</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>Thiruvattar</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>AHAHAHA</t>
+  </si>
+  <si>
+    <t>jhanvi@gmail.com</t>
+  </si>
+  <si>
+    <t>photofemale.jpg</t>
+  </si>
+  <si>
+    <t>bcde</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>abcfs@gmail.com</t>
+  </si>
+  <si>
+    <t>profile.png</t>
+  </si>
+  <si>
     <t>Parols</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2003-01-21</t>
-  </si>
-  <si>
     <t>thiruattsar</t>
   </si>
   <si>
-    <t>Thaliyal Street</t>
-  </si>
-  <si>
-    <t>dsfgfdg</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>bbn</t>
-  </si>
-  <si>
-    <t>parikshith2101@gmail.com</t>
-  </si>
-  <si>
-    <t>eagle.jpg</t>
+    <t>pari@gmail.com</t>
   </si>
   <si>
     <t>role1,role4</t>
@@ -110,70 +176,7 @@
     <t>101,401</t>
   </si>
   <si>
-    <t>Jhanvi</t>
-  </si>
-  <si>
-    <t>Kapoor</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>Thiruvattar</t>
-  </si>
-  <si>
-    <t>Kanyakumari</t>
-  </si>
-  <si>
-    <t>TamilNadu</t>
-  </si>
-  <si>
-    <t>AHAHAHA</t>
-  </si>
-  <si>
-    <t>jhanvi@gmail.com</t>
-  </si>
-  <si>
-    <t>photofemale.jpg</t>
-  </si>
-  <si>
-    <t>bcde</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>abcfs@gmail.com</t>
-  </si>
-  <si>
-    <t>profile.png</t>
-  </si>
-  <si>
-    <t>role1,role2</t>
-  </si>
-  <si>
-    <t>101,201</t>
-  </si>
-  <si>
-    <t>Adijsdfi</t>
-  </si>
-  <si>
-    <t>eeecdeeeee@gmail.com</t>
-  </si>
-  <si>
-    <t>Parikshith</t>
-  </si>
-  <si>
-    <t>parikshith12@gmail.com</t>
-  </si>
-  <si>
-    <t>pari@gmail.com</t>
+    <t>abcd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -410,16 +413,16 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -431,28 +434,28 @@
         <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K4" t="n">
         <v>629177.0</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" t="n">
         <v>1.212121212E9</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O4" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +475,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -490,22 +493,22 @@
         <v>629177.0</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" t="n">
-        <v>1.212121212E9</v>
+        <v>9.487929875E9</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O5" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -513,19 +516,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -537,80 +540,27 @@
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
         <v>629177.0</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M6" t="n">
         <v>1.212121212E9</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O6" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="n">
-        <v>629177.0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.487929875E9</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
         <v>31</v>
       </c>
     </row>

--- a/FileReports/addressBookReport.xlsx
+++ b/FileReports/addressBookReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
   <si>
     <t/>
   </si>
@@ -143,37 +143,40 @@
     <t>bcde</t>
   </si>
   <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>abcfs@gmail.com</t>
+  </si>
+  <si>
+    <t>profile.png</t>
+  </si>
+  <si>
+    <t>Parols</t>
+  </si>
+  <si>
+    <t>thiruattsar</t>
+  </si>
+  <si>
+    <t>pari@gmail.com</t>
+  </si>
+  <si>
+    <t>role1,role4</t>
+  </si>
+  <si>
+    <t>101,401</t>
+  </si>
+  <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>2025-01-21</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>abcfs@gmail.com</t>
-  </si>
-  <si>
-    <t>profile.png</t>
-  </si>
-  <si>
-    <t>Parols</t>
-  </si>
-  <si>
-    <t>thiruattsar</t>
-  </si>
-  <si>
-    <t>pari@gmail.com</t>
-  </si>
-  <si>
-    <t>role1,role4</t>
-  </si>
-  <si>
-    <t>101,401</t>
   </si>
   <si>
     <t>abcd@gmail.com</t>
@@ -519,7 +522,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -546,7 +549,7 @@
         <v>629177.0</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" t="n">
         <v>1.212121212E9</v>
